--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/10/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.130599999999999</v>
+        <v>-7.1948</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.340000000000003</v>
+        <v>5.045699999999998</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.9103</v>
+        <v>4.6487</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.921599999999999</v>
+        <v>-7.8929</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.162999999999994</v>
+        <v>7.179399999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.397399999999994</v>
+        <v>-7.542899999999992</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.443800000000001</v>
+        <v>-7.384699999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.233500000000003</v>
+        <v>-7.303100000000001</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.539899999999999</v>
+        <v>-8.668399999999997</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.0091</v>
+        <v>9.070399999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.030699999999994</v>
+        <v>-7.884599999999995</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.492699999999997</v>
+        <v>5.823299999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,13 +1587,13 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.621599999999997</v>
+        <v>4.529399999999997</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.167899999999995</v>
+        <v>-7.200799999999998</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.318200000000001</v>
+        <v>-7.327599999999995</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>8.968700000000002</v>
+        <v>9.061300000000003</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.541699999999999</v>
+        <v>9.583200000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.725999999999996</v>
+        <v>-7.721499999999996</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.235199999999995</v>
+        <v>-7.119099999999996</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.480300000000002</v>
+        <v>-7.448199999999999</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.472100000000005</v>
+        <v>-8.552299999999999</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.8441</v>
+        <v>-7.819899999999999</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.8015</v>
+        <v>-7.798299999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
